--- a/docs/odh/shr-core-DoseAmount-model.xlsx
+++ b/docs/odh/shr-core-DoseAmount-model.xlsx
@@ -143,8 +143,8 @@
     <t>1</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-SimpleQuantity-model {[]} {[]}
-http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Range-model {[]} {[]}</t>
+    <t>http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SimpleQuantity-model {[]} {[]}
+http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Range-model {[]} {[]}</t>
   </si>
   <si>
     <t>SimpleQuantity or Range representing the amount of medication taken per dose, as a quantity or range. Relative dose (e.g., per kg body weight or surface area) are indicated by specifying appropriate units (e.g., mg/kg or mg/m2 etc).</t>
@@ -296,7 +296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
